--- a/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2243665\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893C7D7F-20F1-4CD0-8BDD-3DC3BA7A4ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977C5143-4A41-42BD-ADAE-7A2AD49DBB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="RICH_CARDS_CONFIG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>RESPONSE_ID</t>
   </si>
@@ -205,6 +206,12 @@
   </si>
   <si>
     <t>Something Went Wrong. Please ensure you are logged in with the correct credentials.</t>
+  </si>
+  <si>
+    <t>ESI_PHA_SESSION_OUT_MSG</t>
+  </si>
+  <si>
+    <t>I am closing our current conversation as I have not received any input from you. We can start over when you need.</t>
   </si>
 </sst>
 </file>
@@ -255,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -269,6 +276,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29329887-49B3-45E3-9F81-89EC8C728205}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -757,23 +767,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -781,34 +788,45 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>7</v>
       </c>
     </row>
